--- a/output/rat/RAT_check_2_solution_True_embeddings.xlsx
+++ b/output/rat/RAT_check_2_solution_True_embeddings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,10 +461,15 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>top_embedding</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>relation</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Accuracy</t>
         </is>
@@ -499,10 +504,15 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>cheese</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>cheese - derived_from</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -533,10 +543,15 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>cheese</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>food - derived_from | cheese - derived_from</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -567,10 +582,15 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>cheese</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>cheese - derived_from</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -601,10 +621,15 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>sore</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>sore - derived_from</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -635,10 +660,15 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>soda</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>soda - related_to | soda - derived_from</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -669,10 +699,15 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>sugar</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>sugar - derived_from</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -703,10 +738,15 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>sugar</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>sugar - derived_from</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -737,10 +777,15 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>sugar</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>of - derived_from | sugar - derived_from</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -771,10 +816,15 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
+          <t>party</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>party - derived_from</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -805,10 +855,15 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>blind</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>blind - derived_from</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -839,10 +894,15 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>salt</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>salt - is_a</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -873,10 +933,15 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
+          <t>salt</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>salt - is_a</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -907,10 +972,15 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>salt</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>salt - derived_from | salt - is_a</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -941,10 +1011,15 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>copy</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>copy - related_to</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -956,7 +1031,8 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
         <is>
           <t>9.33%</t>
         </is>
